--- a/assets/files/regimes_prestations.xlsx
+++ b/assets/files/regimes_prestations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pauldakpogan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41B99F6E-B235-6A49-B811-1DFEB4631E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A15E2E-7FA1-AE4D-BF7E-CAC6385049F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="500" windowWidth="28460" windowHeight="19500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="7400" windowWidth="29960" windowHeight="19500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -1270,55 +1270,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152349</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289A268E-5264-3450-9C02-7871E07900CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9677400" y="8432800"/>
-          <a:ext cx="7772400" cy="5499049"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1832,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2062,7 +2013,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2398,7 +2349,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F7"/>
+      <selection activeCell="C15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2700,7 +2651,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F26" sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3100,7 +3051,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:I34"/>
+      <selection activeCell="I36" sqref="A2:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3745,8 +3696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB851D7-C22A-D940-956E-EEE0A1D29CD1}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4400,6 +4351,5 @@
     <mergeCell ref="A20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>